--- a/server/controllers/file.xlsx
+++ b/server/controllers/file.xlsx
@@ -142,7 +142,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -203,9 +203,6 @@
       <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
